--- a/biology/Botanique/Chlorophyllum/Chlorophyllum.xlsx
+++ b/biology/Botanique/Chlorophyllum/Chlorophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorophyllum est un genre de champignons basidiomycètes de l'ordre des Agaricales et de la famille des Agaricaceae. Ce sont, avec les espèces du genre Macrolepiota, les formes géantes des Lépiotes. Certaines espèces sont très toxiques, comme la lépiote de Morgan (Chlorophyllum molybdites) et il faut prendre garde de ne pas faire de confusion avec la Lépiote élevée (Macrolepiota procera) et autres espèces comestibles.
-Le genre Chlorophyllum est issu d'un des deux clades (tribus) de l'ancien genre Macrolepiota [1].
+Le genre Chlorophyllum est issu d'un des deux clades (tribus) de l'ancien genre Macrolepiota .
 Il fut décrit pour la première fois en 1898 par George Edward Massee, puis isolé de Macrolepiota en raison de la couleur verte de ses spores et l'absence de boucles de conjugaison (cf. Singer 1948, 1951).  Par la suite, on a découvert des boucles dans l'espèce type de Chlorophyllum  (Heinemann 1968, Natarajan and Manjula 1981, Singer 1969, Sundberg 1971), tandis que chez certaines Macrolepiota, elles sont rares ou absentes (Vellinga et al. 2003). La seule différence restant entre les deux genres étant la couleur de la sporée (verte pour les Chlorophyllum et blanche pour les Macrolepiota), quelques auteurs trouvant ce seul caractère insuffisant pour maintenir les deux genres distincts, le premier fut synonymisé avec le second (Moreno et al. 1995). 
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (27 mai 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (27 mai 2013) :
 Chlorophyllum abruptibulbum (R. Heim) Vellinga 2002
 Chlorophyllum agaricoides (Czern.) Vellinga 2002
 Chlorophyllum alborubescens (Hongo) Vellinga 2002
